--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cegeptroisrivieres-my.sharepoint.com/personal/henri_kelhetter_01_edu_cegeptr_qc_ca/Documents/cour sesion1/DÉVELOPPEMENT WEB I/travail long/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\Fichiers-de-Henri-Kelhetter---travail-long\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D9D64A577C15A4A54183DE89947B65ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0485EF7-F7CE-47EA-A119-3C1EA767DAF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258BBC6-F5B1-4936-820E-1AACC8B0AF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>courriel</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>numassusoc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,42 +375,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="H5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\Fichiers-de-Henri-Kelhetter---travail-long\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258BBC6-F5B1-4936-820E-1AACC8B0AF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46B29-FBFD-4873-B3CB-D464A5D5D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nom</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>numassusoc</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Henri Kelhetter</t>
+  </si>
+  <si>
+    <t>henrikelhetter@gmail.com</t>
+  </si>
+  <si>
+    <t>Raphael Dubois</t>
+  </si>
+  <si>
+    <t>Raphaeldu@gmail.com</t>
+  </si>
+  <si>
+    <t>819-668-0252</t>
+  </si>
+  <si>
+    <t>819-456-2345</t>
   </si>
 </sst>
 </file>
@@ -378,11 +399,14 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,18 +427,38 @@
         <v>3</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -426,7 +470,11 @@
       <c r="H5" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{726D0E9C-85A7-47BC-84B2-03A192C038D5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A8D1A0BF-FEAC-49F5-B6B0-49A2DCC4B98C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\Fichiers-de-Henri-Kelhetter---travail-long\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46B29-FBFD-4873-B3CB-D464A5D5D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123DA36-D5E4-44BF-9AEA-B09D68F460CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>nom</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>819-456-2345</t>
+  </si>
+  <si>
+    <t>18-30</t>
+  </si>
+  <si>
+    <t>31-100</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>456-768-9867</t>
+  </si>
+  <si>
+    <t>jjublala@hotmail.com</t>
+  </si>
+  <si>
+    <t>Julia Bati</t>
   </si>
 </sst>
 </file>
@@ -110,11 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -399,7 +418,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +426,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,7 +466,13 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="4">
+        <v>212323321</v>
+      </c>
       <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -459,11 +485,32 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="4">
+        <v>347434555</v>
+      </c>
       <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>456234156</v>
+      </c>
       <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -473,8 +520,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{726D0E9C-85A7-47BC-84B2-03A192C038D5}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{A8D1A0BF-FEAC-49F5-B6B0-49A2DCC4B98C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{ACB716DD-886E-4427-A4B7-635787CA1421}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\Fichiers-de-Henri-Kelhetter---travail-long\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123DA36-D5E4-44BF-9AEA-B09D68F460CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50838876-6853-4E49-8666-608919DAD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>nom</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Julia Bati</t>
+  </si>
+  <si>
+    <t>disability</t>
   </si>
 </sst>
 </file>
@@ -417,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,9 @@
         <v>4</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\Fichiers-de-Henri-Kelhetter---travail-long\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50838876-6853-4E49-8666-608919DAD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9A3F5-59AE-4EDA-B118-D1347243AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>nom</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>disability</t>
+  </si>
+  <si>
+    <t>vision,Hearing</t>
+  </si>
+  <si>
+    <t>Cancer,Mobility,Cognitive</t>
+  </si>
+  <si>
+    <t>Hearing</t>
   </si>
 </sst>
 </file>
@@ -420,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +440,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -478,6 +488,9 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -497,6 +510,9 @@
       <c r="I3" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -515,6 +531,9 @@
       <c r="H4" s="3"/>
       <c r="I4" t="s">
         <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
